--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,6 +40,12 @@
     <font>
       <name val="微软雅黑"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <b val="1"/>
+      <color rgb="00FF7887"/>
+      <sz val="16"/>
     </font>
   </fonts>
   <fills count="3">
@@ -67,9 +73,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -806,6 +815,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="12"/>
+    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="4" min="4" width="12"/>
+    <col customWidth="1" max="5" min="5" width="12"/>
+    <col customWidth="1" max="6" min="6" width="12"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
@@ -895,7 +913,11 @@
       <c r="AW2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n"/>
@@ -938,7 +960,11 @@
       <c r="AW3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>12月</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
@@ -1110,37 +1136,37 @@
       <c r="AW7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
@@ -1183,19 +1209,19 @@
     <row customHeight="1" ht="30" r="9">
       <c r="A9" s="1" t="inlineStr"/>
       <c r="B9" s="1" t="inlineStr"/>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>5</v>
       </c>
       <c r="H9" s="1" t="n"/>
@@ -1234,25 +1260,25 @@
       <c r="AW9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>12</v>
       </c>
       <c r="H10" s="1" t="n"/>
@@ -1291,25 +1317,25 @@
       <c r="AW10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>19</v>
       </c>
       <c r="H11" s="1" t="n"/>
@@ -1348,25 +1374,25 @@
       <c r="AW11" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>26</v>
       </c>
       <c r="H12" s="1" t="n"/>
@@ -1405,19 +1431,19 @@
       <c r="AW12" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>31</v>
       </c>
       <c r="F13" s="1" t="inlineStr"/>
@@ -3259,6 +3285,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="12"/>
+    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="4" min="4" width="12"/>
+    <col customWidth="1" max="5" min="5" width="12"/>
+    <col customWidth="1" max="6" min="6" width="12"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
@@ -3348,7 +3383,11 @@
       <c r="AW2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n"/>
@@ -3391,7 +3430,11 @@
       <c r="AW3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
@@ -3563,37 +3606,37 @@
       <c r="AW7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
@@ -3634,25 +3677,25 @@
       <c r="AW8" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>7</v>
       </c>
       <c r="H9" s="1" t="n"/>
@@ -3691,25 +3734,25 @@
       <c r="AW9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>14</v>
       </c>
       <c r="H10" s="1" t="n"/>
@@ -3748,25 +3791,25 @@
       <c r="AW10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>21</v>
       </c>
       <c r="H11" s="1" t="n"/>
@@ -3805,25 +3848,25 @@
       <c r="AW11" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>28</v>
       </c>
       <c r="H12" s="1" t="n"/>
@@ -3862,13 +3905,13 @@
       <c r="AW12" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>31</v>
       </c>
       <c r="D13" s="1" t="inlineStr"/>
@@ -5712,6 +5755,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="12"/>
+    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="4" min="4" width="12"/>
+    <col customWidth="1" max="5" min="5" width="12"/>
+    <col customWidth="1" max="6" min="6" width="12"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
@@ -5801,7 +5853,11 @@
       <c r="AW2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n"/>
@@ -5844,7 +5900,11 @@
       <c r="AW3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
@@ -6016,37 +6076,37 @@
       <c r="AW7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
@@ -6093,7 +6153,7 @@
       <c r="D9" s="1" t="inlineStr"/>
       <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr"/>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="n"/>
@@ -6132,25 +6192,25 @@
       <c r="AW9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>8</v>
       </c>
       <c r="H10" s="1" t="n"/>
@@ -6189,25 +6249,25 @@
       <c r="AW10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H11" s="1" t="n"/>
@@ -6246,25 +6306,25 @@
       <c r="AW11" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>22</v>
       </c>
       <c r="H12" s="1" t="n"/>
@@ -6303,25 +6363,25 @@
       <c r="AW12" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="4" t="n">
         <v>29</v>
       </c>
       <c r="H13" s="1" t="n"/>
@@ -8161,6 +8221,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="12"/>
+    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="4" min="4" width="12"/>
+    <col customWidth="1" max="5" min="5" width="12"/>
+    <col customWidth="1" max="6" min="6" width="12"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
@@ -8250,7 +8319,11 @@
       <c r="AW2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n"/>
@@ -8293,7 +8366,11 @@
       <c r="AW3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
@@ -8465,37 +8542,37 @@
       <c r="AW7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
@@ -8539,16 +8616,16 @@
       <c r="A9" s="1" t="inlineStr"/>
       <c r="B9" s="1" t="inlineStr"/>
       <c r="C9" s="1" t="inlineStr"/>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>4</v>
       </c>
       <c r="H9" s="1" t="n"/>
@@ -8587,25 +8664,25 @@
       <c r="AW9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>11</v>
       </c>
       <c r="H10" s="1" t="n"/>
@@ -8644,25 +8721,25 @@
       <c r="AW10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>18</v>
       </c>
       <c r="H11" s="1" t="n"/>
@@ -8701,25 +8778,25 @@
       <c r="AW11" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>25</v>
       </c>
       <c r="H12" s="1" t="n"/>
@@ -8758,22 +8835,22 @@
       <c r="AW12" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>31</v>
       </c>
       <c r="G13" s="1" t="inlineStr"/>
@@ -10632,6 +10709,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="12"/>
+    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="4" min="4" width="12"/>
+    <col customWidth="1" max="5" min="5" width="12"/>
+    <col customWidth="1" max="6" min="6" width="12"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
@@ -10721,7 +10807,11 @@
       <c r="AW2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n"/>
@@ -10764,7 +10854,11 @@
       <c r="AW3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>11月</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
@@ -10936,37 +11030,37 @@
       <c r="AW7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
@@ -11007,25 +11101,25 @@
       <c r="AW8" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>7</v>
       </c>
       <c r="H9" s="1" t="n"/>
@@ -11064,25 +11158,25 @@
       <c r="AW9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>14</v>
       </c>
       <c r="H10" s="1" t="n"/>
@@ -11121,25 +11215,25 @@
       <c r="AW10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>21</v>
       </c>
       <c r="H11" s="1" t="n"/>
@@ -11178,25 +11272,25 @@
       <c r="AW11" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>28</v>
       </c>
       <c r="H12" s="1" t="n"/>
@@ -11235,10 +11329,10 @@
       <c r="AW12" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>30</v>
       </c>
       <c r="C13" s="1" t="inlineStr"/>
@@ -13083,6 +13177,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="12"/>
+    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="4" min="4" width="12"/>
+    <col customWidth="1" max="5" min="5" width="12"/>
+    <col customWidth="1" max="6" min="6" width="12"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
@@ -13172,7 +13275,11 @@
       <c r="AW2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n"/>
@@ -13215,7 +13322,11 @@
       <c r="AW3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>10月</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
@@ -13387,37 +13498,37 @@
       <c r="AW7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
@@ -13462,13 +13573,13 @@
       <c r="B9" s="1" t="inlineStr"/>
       <c r="C9" s="1" t="inlineStr"/>
       <c r="D9" s="1" t="inlineStr"/>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>3</v>
       </c>
       <c r="H9" s="1" t="n"/>
@@ -13507,25 +13618,25 @@
       <c r="AW9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>10</v>
       </c>
       <c r="H10" s="1" t="n"/>
@@ -13564,25 +13675,25 @@
       <c r="AW10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>17</v>
       </c>
       <c r="H11" s="1" t="n"/>
@@ -13621,25 +13732,25 @@
       <c r="AW11" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>24</v>
       </c>
       <c r="H12" s="1" t="n"/>
@@ -13678,25 +13789,25 @@
       <c r="AW12" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="4" t="n">
         <v>31</v>
       </c>
       <c r="H13" s="1" t="n"/>
@@ -15536,6 +15647,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="12"/>
+    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="4" min="4" width="12"/>
+    <col customWidth="1" max="5" min="5" width="12"/>
+    <col customWidth="1" max="6" min="6" width="12"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
@@ -15625,7 +15745,11 @@
       <c r="AW2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n"/>
@@ -15668,7 +15792,11 @@
       <c r="AW3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>9月</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
@@ -15840,37 +15968,37 @@
       <c r="AW7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
@@ -15913,19 +16041,19 @@
     <row customHeight="1" ht="30" r="9">
       <c r="A9" s="1" t="inlineStr"/>
       <c r="B9" s="1" t="inlineStr"/>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>5</v>
       </c>
       <c r="H9" s="1" t="n"/>
@@ -15964,25 +16092,25 @@
       <c r="AW9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>12</v>
       </c>
       <c r="H10" s="1" t="n"/>
@@ -16021,25 +16149,25 @@
       <c r="AW10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>19</v>
       </c>
       <c r="H11" s="1" t="n"/>
@@ -16078,25 +16206,25 @@
       <c r="AW11" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>26</v>
       </c>
       <c r="H12" s="1" t="n"/>
@@ -16135,16 +16263,16 @@
       <c r="AW12" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>30</v>
       </c>
       <c r="E13" s="1" t="inlineStr"/>
@@ -17987,6 +18115,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="12"/>
+    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="4" min="4" width="12"/>
+    <col customWidth="1" max="5" min="5" width="12"/>
+    <col customWidth="1" max="6" min="6" width="12"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
@@ -18076,7 +18213,11 @@
       <c r="AW2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n"/>
@@ -18119,7 +18260,11 @@
       <c r="AW3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>8月</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
@@ -18291,37 +18436,37 @@
       <c r="AW7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
@@ -18368,7 +18513,7 @@
       <c r="D9" s="1" t="inlineStr"/>
       <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr"/>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="n"/>
@@ -18407,25 +18552,25 @@
       <c r="AW9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>8</v>
       </c>
       <c r="H10" s="1" t="n"/>
@@ -18464,25 +18609,25 @@
       <c r="AW10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H11" s="1" t="n"/>
@@ -18521,25 +18666,25 @@
       <c r="AW11" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>22</v>
       </c>
       <c r="H12" s="1" t="n"/>
@@ -18578,25 +18723,25 @@
       <c r="AW12" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="4" t="n">
         <v>29</v>
       </c>
       <c r="H13" s="1" t="n"/>
@@ -18635,10 +18780,10 @@
       <c r="AW13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>31</v>
       </c>
       <c r="C14" s="1" t="inlineStr"/>
@@ -20440,6 +20585,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="12"/>
+    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="4" min="4" width="12"/>
+    <col customWidth="1" max="5" min="5" width="12"/>
+    <col customWidth="1" max="6" min="6" width="12"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
@@ -20529,7 +20683,11 @@
       <c r="AW2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n"/>
@@ -20572,7 +20730,11 @@
       <c r="AW3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>7月</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
@@ -20744,37 +20906,37 @@
       <c r="AW7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
@@ -20818,16 +20980,16 @@
       <c r="A9" s="1" t="inlineStr"/>
       <c r="B9" s="1" t="inlineStr"/>
       <c r="C9" s="1" t="inlineStr"/>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>4</v>
       </c>
       <c r="H9" s="1" t="n"/>
@@ -20866,25 +21028,25 @@
       <c r="AW9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>11</v>
       </c>
       <c r="H10" s="1" t="n"/>
@@ -20923,25 +21085,25 @@
       <c r="AW10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>18</v>
       </c>
       <c r="H11" s="1" t="n"/>
@@ -20980,25 +21142,25 @@
       <c r="AW11" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>25</v>
       </c>
       <c r="H12" s="1" t="n"/>
@@ -21037,22 +21199,22 @@
       <c r="AW12" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>31</v>
       </c>
       <c r="G13" s="1" t="inlineStr"/>
@@ -22893,6 +23055,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="12"/>
+    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="4" min="4" width="12"/>
+    <col customWidth="1" max="5" min="5" width="12"/>
+    <col customWidth="1" max="6" min="6" width="12"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
@@ -22982,7 +23153,11 @@
       <c r="AW2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n"/>
@@ -23025,7 +23200,11 @@
       <c r="AW3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>6月</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
@@ -23197,37 +23376,37 @@
       <c r="AW7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
@@ -23269,22 +23448,22 @@
     </row>
     <row customHeight="1" ht="30" r="9">
       <c r="A9" s="1" t="inlineStr"/>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>6</v>
       </c>
       <c r="H9" s="1" t="n"/>
@@ -23323,25 +23502,25 @@
       <c r="AW9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>13</v>
       </c>
       <c r="H10" s="1" t="n"/>
@@ -23380,25 +23559,25 @@
       <c r="AW10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>20</v>
       </c>
       <c r="H11" s="1" t="n"/>
@@ -23437,25 +23616,25 @@
       <c r="AW11" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>27</v>
       </c>
       <c r="H12" s="1" t="n"/>
@@ -23494,13 +23673,13 @@
       <c r="AW12" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>30</v>
       </c>
       <c r="D13" s="1" t="inlineStr"/>
@@ -25344,6 +25523,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="12"/>
+    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="4" min="4" width="12"/>
+    <col customWidth="1" max="5" min="5" width="12"/>
+    <col customWidth="1" max="6" min="6" width="12"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
@@ -25433,7 +25621,11 @@
       <c r="AW2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n"/>
@@ -25476,7 +25668,11 @@
       <c r="AW3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>5月</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
@@ -25648,37 +25844,37 @@
       <c r="AW7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
@@ -25724,10 +25920,10 @@
       <c r="C9" s="1" t="inlineStr"/>
       <c r="D9" s="1" t="inlineStr"/>
       <c r="E9" s="1" t="inlineStr"/>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H9" s="1" t="n"/>
@@ -25766,25 +25962,25 @@
       <c r="AW9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>9</v>
       </c>
       <c r="H10" s="1" t="n"/>
@@ -25823,25 +26019,25 @@
       <c r="AW10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>16</v>
       </c>
       <c r="H11" s="1" t="n"/>
@@ -25880,25 +26076,25 @@
       <c r="AW11" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>23</v>
       </c>
       <c r="H12" s="1" t="n"/>
@@ -25937,25 +26133,25 @@
       <c r="AW12" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H13" s="1" t="n"/>
@@ -25994,7 +26190,7 @@
       <c r="AW13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>31</v>
       </c>
       <c r="B14" s="1" t="inlineStr"/>
@@ -27797,6 +27993,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="12"/>
+    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="4" min="4" width="12"/>
+    <col customWidth="1" max="5" min="5" width="12"/>
+    <col customWidth="1" max="6" min="6" width="12"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
@@ -27886,7 +28091,11 @@
       <c r="AW2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n"/>
@@ -27929,7 +28138,11 @@
       <c r="AW3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>4月</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
@@ -28101,37 +28314,37 @@
       <c r="AW7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>星期日</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>星期一</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>星期二</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>星期三</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>星期四</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>星期六</t>
         </is>
@@ -28175,16 +28388,16 @@
       <c r="A9" s="1" t="inlineStr"/>
       <c r="B9" s="1" t="inlineStr"/>
       <c r="C9" s="1" t="inlineStr"/>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>4</v>
       </c>
       <c r="H9" s="1" t="n"/>
@@ -28223,25 +28436,25 @@
       <c r="AW9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>11</v>
       </c>
       <c r="H10" s="1" t="n"/>
@@ -28280,25 +28493,25 @@
       <c r="AW10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>18</v>
       </c>
       <c r="H11" s="1" t="n"/>
@@ -28337,25 +28550,25 @@
       <c r="AW11" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>25</v>
       </c>
       <c r="H12" s="1" t="n"/>
@@ -28394,19 +28607,19 @@
       <c r="AW12" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>30</v>
       </c>
       <c r="F13" s="1" t="inlineStr"/>
